--- a/biology/Botanique/Aeonium_arboreum/Aeonium_arboreum.xlsx
+++ b/biology/Botanique/Aeonium_arboreum/Aeonium_arboreum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aeonium arboreum, l'aéonium en arbre ou chou en arbre, est une espèce de plantes succulentes, du genre Aeonium, de la famille des Crassulaceae, originaire des îles Canaries et du Maroc.
 </t>
@@ -511,7 +523,9 @@
           <t>Variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Aeonium arboreum comporte deux variétés colorées, particulièrement décoratives :
 Aeonium arboreum var. atropurpureum, de couleur marron ou bordeaux, un peu plus fragile que la variété type.
@@ -543,10 +557,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Aeonium arboreum est un arbrisseau ramifié pouvant atteindre 1 à 2 m de haut. Les feuilles sont uniquement disposées en rosettes à l'extrémité de gros rameaux. Les feuilles basses de la rosette tombent au fur et à mesure de la croissance et laissent des cicatrices foliaires sur le rameau.
-Les rosettes concaves (plus ou moins aplaties) sont formées de 50 à 75 feuilles serrées les unes contre les autres, formant une soucoupe de 10 à 20 cm de diamètre[1].
+Les rosettes concaves (plus ou moins aplaties) sont formées de 50 à 75 feuilles serrées les unes contre les autres, formant une soucoupe de 10 à 20 cm de diamètre.
 Les feuilles sont vert glauque (ou pourpres pour la variété Atropurpureum), de forme oblongue-oblancéolée, de 5-9 (-15) cm de long, fermes et charnues, ornées de cils à la marge.
 L'inflorescence est une cyme dense, conique à ovoïde, pulvérulente, de 10 à 20 cm de haut.
 Les fleurs d'un jaune brillant, font 2 cm de diamètre. Le calice est pulvérulent, la corolle est formée de 9 à 11 pétales oblongs, les étamines deux fois plus nombreuses, sont disposées en deux verticilles.
@@ -579,10 +595,12 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aeonium arboreum, l'aéonium en arbre, est originaire des îles Canaries et du Maroc[2].
-C'est une espèce commune dans les zones basses et forestières (en dessous de 1 200 m d'altitude) de la Grande Canarie et de Tenerife où elle fleurit à la fin de l'automne[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aeonium arboreum, l'aéonium en arbre, est originaire des îles Canaries et du Maroc.
+C'est une espèce commune dans les zones basses et forestières (en dessous de 1 200 m d'altitude) de la Grande Canarie et de Tenerife où elle fleurit à la fin de l'automne.
 Il a été introduit, cultivé et s'est naturalisé dans de nombreuses régions du monde : 
 - Afrique : Madère, Algérie, Tunisie
 - Australie, Nouvelle-Zélande 
@@ -616,7 +634,9 @@
           <t>Images</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Atropurpureum
@@ -651,7 +671,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Aeonium arboreum est cultivé en région méditerranéenne ou dans les climats doux sans fortes gelées, dans des jardins de rocailles.
 Il supporte de courtes périodes de gel, au-dessus de −4 °C.
@@ -686,9 +708,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Suivant The Plant List, les synonymes[4] (avec le meilleur degré de confiance) sont :
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Suivant The Plant List, les synonymes (avec le meilleur degré de confiance) sont :
 Aeonium doremae Webb ex Christ
 Aeonium manriqueorum Bolle
 Sempervivum arboreum L. (basionyme)</t>
